--- a/Data/Assumption/Zone/ZoneA1.xlsx
+++ b/Data/Assumption/Zone/ZoneA1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TechAssumption" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Unit</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>DataCode</t>
+  </si>
+  <si>
+    <t>GAS_CHP_BP</t>
+  </si>
+  <si>
+    <t>GAS_CHP_EC</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -633,10 +639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -776,16 +782,26 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Data/Assumption/Zone/ZoneA1.xlsx
+++ b/Data/Assumption/Zone/ZoneA1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TechAssumption" sheetId="6" r:id="rId1"/>
@@ -26,12 +26,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Ratio of Power Loses to final consumption</t>
-  </si>
-  <si>
-    <t>PowerLosesRatio</t>
-  </si>
-  <si>
     <t>COA_SUB_HC</t>
   </si>
   <si>
@@ -126,6 +120,12 @@
   </si>
   <si>
     <t>GAS_CHP_EC</t>
+  </si>
+  <si>
+    <t>PowerLossRatio</t>
+  </si>
+  <si>
+    <t>Ratio of Power Loss to final consumption</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -589,10 +589,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,157 +652,157 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Assumption/Zone/ZoneA1.xlsx
+++ b/Data/Assumption/Zone/ZoneA1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TechAssumption" sheetId="6" r:id="rId1"/>
@@ -95,18 +95,6 @@
     <t>BIO_IGCC_CHP</t>
   </si>
   <si>
-    <t>COA_CHP_BP</t>
-  </si>
-  <si>
-    <t>COA_CHP_EC</t>
-  </si>
-  <si>
-    <t>COA_CHP_BP_CCS</t>
-  </si>
-  <si>
-    <t>GAS_CHP_EC_CCS</t>
-  </si>
-  <si>
     <t>OIL_ST</t>
   </si>
   <si>
@@ -116,16 +104,28 @@
     <t>DataCode</t>
   </si>
   <si>
-    <t>GAS_CHP_BP</t>
-  </si>
-  <si>
-    <t>GAS_CHP_EC</t>
-  </si>
-  <si>
     <t>PowerLossRatio</t>
   </si>
   <si>
     <t>Ratio of Power Loss to final consumption</t>
+  </si>
+  <si>
+    <t>COA_CHP_BP_DH</t>
+  </si>
+  <si>
+    <t>COA_CHP_EC_DH</t>
+  </si>
+  <si>
+    <t>GAS_CHP_BP_DH</t>
+  </si>
+  <si>
+    <t>GAS_CHP_EC_DH</t>
+  </si>
+  <si>
+    <t>COA_CHP_EC_CCS_DH</t>
+  </si>
+  <si>
+    <t>GAS_CHP_EC_CCS_DH</t>
   </si>
 </sst>
 </file>
@@ -227,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -531,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -545,7 +545,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -589,10 +589,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -652,7 +652,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -772,12 +772,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -792,17 +792,17 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Assumption/Zone/ZoneA1.xlsx
+++ b/Data/Assumption/Zone/ZoneA1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TechAssumption" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Unit</t>
   </si>
@@ -104,12 +104,6 @@
     <t>DataCode</t>
   </si>
   <si>
-    <t>PowerLossRatio</t>
-  </si>
-  <si>
-    <t>Ratio of Power Loss to final consumption</t>
-  </si>
-  <si>
     <t>COA_CHP_BP_DH</t>
   </si>
   <si>
@@ -126,6 +120,18 @@
   </si>
   <si>
     <t>GAS_CHP_EC_CCS_DH</t>
+  </si>
+  <si>
+    <t>PowerDistLossRate</t>
+  </si>
+  <si>
+    <t>HeatDistLossRate</t>
+  </si>
+  <si>
+    <t>Ratio of power distribution loss to final consumption</t>
+  </si>
+  <si>
+    <t>Ratio of heat distribution loss to final consumption</t>
   </si>
 </sst>
 </file>
@@ -227,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -243,7 +249,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -529,16 +535,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="9" width="10.625" customWidth="1"/>
   </cols>
@@ -589,10 +595,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -628,6 +634,50 @@
         <v>3</v>
       </c>
       <c r="N2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3</v>
+      </c>
+      <c r="L3" s="6">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6">
         <v>3</v>
       </c>
     </row>
@@ -641,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
@@ -772,32 +822,32 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
